--- a/data/Aid/分类算法数据.xlsx
+++ b/data/Aid/分类算法数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B924EF67-A437-4E3B-906A-6DD649D02E5E}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D97B0C-F290-4079-9F3D-A50A0A19B368}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="6285" windowWidth="24045" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7077" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7058" uniqueCount="1782">
   <si>
     <t>id</t>
   </si>
@@ -8876,7 +8876,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8888,6 +8888,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9200,14 +9203,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C998" sqref="C998"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="3" max="3" width="122.7109375" customWidth="1"/>
+    <col min="2" max="2" width="163.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18" style="4" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" customWidth="1"/>
@@ -9321,7 +9324,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(F$2:F$1770,3)</f>
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9377,7 +9380,7 @@
       </c>
       <c r="I6">
         <f>COUNTIF(F$3:F$1770,5)</f>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9408,7 +9411,7 @@
       </c>
       <c r="I7">
         <f>COUNTIF(F$2:F$1770,6)</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10662,10 +10665,10 @@
         <v>2022008</v>
       </c>
       <c r="E55" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>1775</v>
+        <v>1757</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
       </c>
       <c r="G55" t="s">
         <v>1765</v>
@@ -13122,10 +13125,10 @@
         <v>2022027</v>
       </c>
       <c r="E147" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>1774</v>
+        <v>1758</v>
+      </c>
+      <c r="F147" s="4">
+        <v>6</v>
       </c>
       <c r="G147" t="s">
         <v>1767</v>
@@ -22150,10 +22153,10 @@
         <v>2022040</v>
       </c>
       <c r="E488" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F488" s="4" t="s">
-        <v>1774</v>
+        <v>1758</v>
+      </c>
+      <c r="F488" s="4">
+        <v>6</v>
       </c>
       <c r="G488" t="s">
         <v>1766</v>
@@ -22336,10 +22339,10 @@
         <v>2022012</v>
       </c>
       <c r="E495" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F495" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F495" s="4">
+        <v>2</v>
       </c>
       <c r="G495" t="s">
         <v>1769</v>
@@ -23039,11 +23042,11 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" ht="90">
       <c r="A523">
         <v>2201285</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="6" t="s">
         <v>525</v>
       </c>
       <c r="C523">
@@ -23491,10 +23494,10 @@
         <v>2022007</v>
       </c>
       <c r="E540" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F540" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F540" s="4">
+        <v>2</v>
       </c>
       <c r="G540" t="s">
         <v>1766</v>
@@ -24527,21 +24530,21 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" ht="360">
       <c r="A579">
         <v>2201370</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="6" t="s">
         <v>581</v>
       </c>
       <c r="D579">
         <v>2022033</v>
       </c>
       <c r="E579" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F579" s="4" t="s">
-        <v>1775</v>
+        <v>1761</v>
+      </c>
+      <c r="F579" s="4">
+        <v>5</v>
       </c>
       <c r="G579" t="s">
         <v>1766</v>
@@ -26962,10 +26965,10 @@
         <v>2022047</v>
       </c>
       <c r="E671" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F671" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F671" s="4">
+        <v>2</v>
       </c>
       <c r="G671" t="s">
         <v>1766</v>
@@ -27418,10 +27421,10 @@
         <v>2022158</v>
       </c>
       <c r="E689" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F689" s="4" t="s">
-        <v>1775</v>
+        <v>1757</v>
+      </c>
+      <c r="F689" s="4">
+        <v>2</v>
       </c>
       <c r="G689" t="s">
         <v>1766</v>
@@ -32581,10 +32584,10 @@
         <v>2022124</v>
       </c>
       <c r="E899" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F899" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F899" s="4">
+        <v>2</v>
       </c>
       <c r="G899" t="s">
         <v>1765</v>
@@ -35284,10 +35287,10 @@
         <v>2022167</v>
       </c>
       <c r="E1005" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F1005" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F1005" s="4">
+        <v>2</v>
       </c>
       <c r="G1005" t="s">
         <v>1769</v>
@@ -40997,11 +41000,11 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1219" spans="1:8">
+    <row r="1219" spans="1:8" ht="165">
       <c r="A1219">
         <v>2202367</v>
       </c>
-      <c r="B1219" t="s">
+      <c r="B1219" s="6" t="s">
         <v>1210</v>
       </c>
       <c r="C1219">
@@ -41011,10 +41014,10 @@
         <v>2022154</v>
       </c>
       <c r="E1219" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F1219" s="4" t="s">
-        <v>1778</v>
+        <v>1757</v>
+      </c>
+      <c r="F1219" s="4">
+        <v>2</v>
       </c>
       <c r="G1219" t="s">
         <v>1765</v>
@@ -41755,10 +41758,10 @@
         <v>2022175</v>
       </c>
       <c r="E1249" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F1249" s="4" t="s">
-        <v>1774</v>
+        <v>1758</v>
+      </c>
+      <c r="F1249" s="4">
+        <v>6</v>
       </c>
       <c r="G1249" t="s">
         <v>1766</v>
@@ -42757,10 +42760,10 @@
         <v>2022216</v>
       </c>
       <c r="E1290" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F1290" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F1290" s="4">
+        <v>2</v>
       </c>
       <c r="G1290" t="s">
         <v>1765</v>
@@ -42784,10 +42787,10 @@
         <v>2022216</v>
       </c>
       <c r="E1291" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F1291" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F1291" s="4">
+        <v>2</v>
       </c>
       <c r="G1291" t="s">
         <v>1765</v>
@@ -43597,10 +43600,10 @@
         <v>2022185</v>
       </c>
       <c r="E1324" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F1324" s="4" t="s">
-        <v>1778</v>
+        <v>1757</v>
+      </c>
+      <c r="F1324" s="4">
+        <v>2</v>
       </c>
       <c r="G1324" t="s">
         <v>1769</v>
@@ -45511,10 +45514,10 @@
         <v>2022208</v>
       </c>
       <c r="E1399" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F1399" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F1399" s="4">
+        <v>2</v>
       </c>
       <c r="G1399" t="s">
         <v>1768</v>
@@ -46186,10 +46189,10 @@
         <v>2022092</v>
       </c>
       <c r="E1425" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F1425" s="4" t="s">
-        <v>1775</v>
+        <v>1757</v>
+      </c>
+      <c r="F1425" s="4">
+        <v>2</v>
       </c>
       <c r="G1425" t="s">
         <v>1766</v>
@@ -47992,10 +47995,10 @@
         <v>2022198</v>
       </c>
       <c r="E1496" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F1496" s="4" t="s">
-        <v>1775</v>
+        <v>1757</v>
+      </c>
+      <c r="F1496" s="4">
+        <v>2</v>
       </c>
       <c r="G1496" t="s">
         <v>1765</v>
@@ -51220,10 +51223,10 @@
         <v>2022089</v>
       </c>
       <c r="E1623" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F1623" s="4" t="s">
-        <v>1778</v>
+        <v>1757</v>
+      </c>
+      <c r="F1623" s="4">
+        <v>2</v>
       </c>
       <c r="G1623" t="s">
         <v>1765</v>

--- a/data/Aid/分类算法数据.xlsx
+++ b/data/Aid/分类算法数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D97B0C-F290-4079-9F3D-A50A0A19B368}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{048802C2-652C-40D3-9700-E1EC1DCBF3F5}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="6285" windowWidth="24045" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="6435" windowWidth="24045" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7058" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7057" uniqueCount="1782">
   <si>
     <t>id</t>
   </si>
@@ -9203,14 +9203,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="B390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="163.140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18" style="4" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" customWidth="1"/>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="I7">
         <f>COUNTIF(F$2:F$1770,6)</f>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="I8">
         <f>COUNTIF(F$2:F$1770,7)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -15384,10 +15384,10 @@
         <v>2022041</v>
       </c>
       <c r="E232" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>1775</v>
+        <v>1763</v>
+      </c>
+      <c r="F232" s="4">
+        <v>7</v>
       </c>
       <c r="G232" t="s">
         <v>1765</v>
@@ -19757,11 +19757,11 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" ht="300">
       <c r="A398">
         <v>2201003</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="6" t="s">
         <v>401</v>
       </c>
       <c r="C398">

--- a/data/Aid/分类算法数据.xlsx
+++ b/data/Aid/分类算法数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{048802C2-652C-40D3-9700-E1EC1DCBF3F5}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328DE23B-124A-4C17-A365-A620ADB57C9F}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="6435" windowWidth="24045" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="6300" windowWidth="24045" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7057" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7049" uniqueCount="1782">
   <si>
     <t>id</t>
   </si>
@@ -8908,10 +8908,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9203,8 +9199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+    <sheetView tabSelected="1" topLeftCell="B1399" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1399" sqref="B1399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9296,7 +9292,7 @@
       </c>
       <c r="I3">
         <f>COUNTIF(F$3:F$1770,1)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9324,7 +9320,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(F$2:F$1770,3)</f>
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9352,7 +9348,7 @@
       </c>
       <c r="I5">
         <f>COUNTIF(F$2:F$1770,4)</f>
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9380,7 +9376,7 @@
       </c>
       <c r="I6">
         <f>COUNTIF(F$3:F$1770,5)</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9411,7 +9407,7 @@
       </c>
       <c r="I7">
         <f>COUNTIF(F$2:F$1770,6)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9490,11 +9486,11 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="90">
       <c r="A11">
         <v>2200100</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11">
@@ -20749,10 +20745,10 @@
         <v>2022043</v>
       </c>
       <c r="E435" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F435" s="4" t="s">
-        <v>1778</v>
+        <v>1759</v>
+      </c>
+      <c r="F435" s="4">
+        <v>4</v>
       </c>
       <c r="G435" t="s">
         <v>1765</v>
@@ -20827,10 +20823,10 @@
         <v>2022042</v>
       </c>
       <c r="E438" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F438" s="4" t="s">
-        <v>1776</v>
+        <v>1762</v>
+      </c>
+      <c r="F438" s="4">
+        <v>3</v>
       </c>
       <c r="G438" t="s">
         <v>1769</v>
@@ -23480,11 +23476,11 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" ht="165">
       <c r="A540">
         <v>2201305</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="6" t="s">
         <v>542</v>
       </c>
       <c r="C540">
@@ -24605,11 +24601,11 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" ht="409.5">
       <c r="A582">
         <v>2201375</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="6" t="s">
         <v>584</v>
       </c>
       <c r="D582">
@@ -27158,11 +27154,11 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" ht="345">
       <c r="A679">
         <v>2201511</v>
       </c>
-      <c r="B679" t="s">
+      <c r="B679" s="6" t="s">
         <v>681</v>
       </c>
       <c r="D679">
@@ -32773,10 +32769,10 @@
         <v>2022233</v>
       </c>
       <c r="E906" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F906" s="4" t="s">
-        <v>1776</v>
+        <v>1760</v>
+      </c>
+      <c r="F906" s="4">
+        <v>1</v>
       </c>
       <c r="G906" t="s">
         <v>1766</v>
@@ -34501,10 +34497,10 @@
         <v>2022176</v>
       </c>
       <c r="E975" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F975" s="4" t="s">
-        <v>1778</v>
+        <v>1757</v>
+      </c>
+      <c r="F975" s="4">
+        <v>2</v>
       </c>
       <c r="G975" t="s">
         <v>1765</v>
@@ -36569,11 +36565,11 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1053" spans="1:8">
+    <row r="1053" spans="1:8" ht="105">
       <c r="A1053">
         <v>2202061</v>
       </c>
-      <c r="B1053" t="s">
+      <c r="B1053" s="6" t="s">
         <v>1051</v>
       </c>
       <c r="C1053">
@@ -37706,11 +37702,11 @@
         <v/>
       </c>
     </row>
-    <row r="1096" spans="1:8">
+    <row r="1096" spans="1:8" ht="75">
       <c r="A1096">
         <v>2202159</v>
       </c>
-      <c r="B1096" t="s">
+      <c r="B1096" s="6" t="s">
         <v>1088</v>
       </c>
       <c r="C1096">
@@ -37720,10 +37716,10 @@
         <v>2022211</v>
       </c>
       <c r="E1096" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F1096" s="4" t="s">
-        <v>1775</v>
+        <v>1757</v>
+      </c>
+      <c r="F1096" s="4">
+        <v>2</v>
       </c>
       <c r="H1096" t="str">
         <f t="shared" si="17"/>
@@ -41926,10 +41922,10 @@
         <v>2022179</v>
       </c>
       <c r="E1256" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F1256" s="4" t="s">
-        <v>1774</v>
+        <v>1758</v>
+      </c>
+      <c r="F1256" s="4">
+        <v>6</v>
       </c>
       <c r="G1256" t="s">
         <v>1767</v>
@@ -42773,11 +42769,11 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1291" spans="1:8">
+    <row r="1291" spans="1:8" ht="90">
       <c r="A1291">
         <v>2202517</v>
       </c>
-      <c r="B1291" t="s">
+      <c r="B1291" s="6" t="s">
         <v>1281</v>
       </c>
       <c r="C1291">
@@ -42787,10 +42783,10 @@
         <v>2022216</v>
       </c>
       <c r="E1291" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
       <c r="F1291" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1291" t="s">
         <v>1765</v>
@@ -43984,10 +43980,10 @@
         <v>2022088</v>
       </c>
       <c r="E1339" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F1339" s="4" t="s">
-        <v>1779</v>
+        <v>1757</v>
+      </c>
+      <c r="F1339" s="4">
+        <v>2</v>
       </c>
       <c r="G1339" t="s">
         <v>1766</v>
@@ -45503,11 +45499,11 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1399" spans="1:8">
+    <row r="1399" spans="1:8" ht="210">
       <c r="A1399">
         <v>2202698</v>
       </c>
-      <c r="B1399" t="s">
+      <c r="B1399" s="6" t="s">
         <v>1389</v>
       </c>
       <c r="D1399">
@@ -49643,11 +49639,11 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1561" spans="1:8">
+    <row r="1561" spans="1:8" ht="60">
       <c r="A1561">
         <v>2202904</v>
       </c>
-      <c r="B1561" t="s">
+      <c r="B1561" s="6" t="s">
         <v>1551</v>
       </c>
       <c r="C1561">
@@ -54911,11 +54907,11 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1763" spans="1:8">
+    <row r="1763" spans="1:8" ht="60">
       <c r="A1763">
         <v>2203165</v>
       </c>
-      <c r="B1763" t="s">
+      <c r="B1763" s="6" t="s">
         <v>1749</v>
       </c>
       <c r="C1763">
@@ -54925,10 +54921,10 @@
         <v>2022222</v>
       </c>
       <c r="E1763" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F1763" s="4" t="s">
-        <v>1775</v>
+        <v>1762</v>
+      </c>
+      <c r="F1763" s="4">
+        <v>3</v>
       </c>
       <c r="G1763" t="s">
         <v>1765</v>

--- a/data/Aid/分类算法数据.xlsx
+++ b/data/Aid/分类算法数据.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328DE23B-124A-4C17-A365-A620ADB57C9F}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="6300" windowWidth="24045" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="6945" windowWidth="24045" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8908,6 +8908,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9200,7 +9204,7 @@
   <dimension ref="A1:I1770"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1399" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1399" sqref="B1399"/>
+      <selection activeCell="E1399" sqref="E1399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Aid/分类算法数据.xlsx
+++ b/data/Aid/分类算法数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328DE23B-124A-4C17-A365-A620ADB57C9F}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA10AE2-5B42-40AE-9350-CBF3DED4CE28}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="6945" windowWidth="24045" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="6930" windowWidth="24045" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7049" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7045" uniqueCount="1782">
   <si>
     <t>id</t>
   </si>
@@ -9203,8 +9203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1399" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1399" sqref="E1399"/>
+    <sheetView tabSelected="1" topLeftCell="B698" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F705" sqref="F705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(F$2:F$1770,3)</f>
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="I5">
         <f>COUNTIF(F$2:F$1770,4)</f>
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="I6">
         <f>COUNTIF(F$3:F$1770,5)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="I7">
         <f>COUNTIF(F$2:F$1770,6)</f>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10017,10 +10017,10 @@
         <v>2022040</v>
       </c>
       <c r="E31" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>1774</v>
+        <v>1762</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
       </c>
       <c r="G31" t="s">
         <v>1767</v>
@@ -23953,10 +23953,10 @@
         <v>2022023</v>
       </c>
       <c r="E557" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F557" s="4" t="s">
-        <v>1776</v>
+        <v>1762</v>
+      </c>
+      <c r="F557" s="4">
+        <v>3</v>
       </c>
       <c r="G557" t="s">
         <v>1766</v>
@@ -27805,10 +27805,10 @@
         <v>2022230</v>
       </c>
       <c r="E705" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F705" s="4" t="s">
-        <v>1774</v>
+        <v>1762</v>
+      </c>
+      <c r="F705" s="4">
+        <v>3</v>
       </c>
       <c r="G705" t="s">
         <v>1766</v>
@@ -28793,11 +28793,11 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" ht="90">
       <c r="A746">
         <v>2201623</v>
       </c>
-      <c r="B746" t="s">
+      <c r="B746" s="6" t="s">
         <v>748</v>
       </c>
       <c r="D746">
@@ -28972,10 +28972,10 @@
         <v>2022219</v>
       </c>
       <c r="E753" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F753" s="4" t="s">
-        <v>1778</v>
+        <v>1757</v>
+      </c>
+      <c r="F753" s="4">
+        <v>2</v>
       </c>
       <c r="G753" t="s">
         <v>1765</v>
@@ -41926,10 +41926,10 @@
         <v>2022179</v>
       </c>
       <c r="E1256" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F1256" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1256" t="s">
         <v>1767</v>
@@ -52750,10 +52750,10 @@
         <v>2022154</v>
       </c>
       <c r="E1682" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="F1682" s="4" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="G1682" t="s">
         <v>1765</v>

--- a/data/Aid/分类算法数据.xlsx
+++ b/data/Aid/分类算法数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D195545-67FF-4DCB-8A34-F4BF414BCA5A}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4830F33E-6AA3-4B9C-84E2-28E62D9198C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8878,6 +8878,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9344,7 +9348,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10">
         <v>2200095</v>
       </c>
@@ -9361,7 +9365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="90" hidden="1">
+    <row r="11" spans="1:6" ht="90">
       <c r="A11">
         <v>2200100</v>
       </c>
@@ -9694,7 +9698,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2200154</v>
       </c>
@@ -9714,7 +9718,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30">
         <v>2200155</v>
       </c>
@@ -9814,7 +9818,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35">
         <v>2200160</v>
       </c>
@@ -9914,7 +9918,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40">
         <v>2200174</v>
       </c>
@@ -9934,7 +9938,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41">
         <v>2200175</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42">
         <v>2200176</v>
       </c>
@@ -10054,7 +10058,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47">
         <v>2200181</v>
       </c>
@@ -10154,7 +10158,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>2200186</v>
       </c>
@@ -10251,7 +10255,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>2200193</v>
       </c>
@@ -10268,7 +10272,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>2200194</v>
       </c>
@@ -10448,7 +10452,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>2200203</v>
       </c>
@@ -10548,7 +10552,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72">
         <v>2200208</v>
       </c>
@@ -10705,7 +10709,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>2200216</v>
       </c>
@@ -11122,7 +11126,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>2200245</v>
       </c>
@@ -11162,7 +11166,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>2200249</v>
       </c>
@@ -11539,7 +11543,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122">
         <v>2200270</v>
       </c>
@@ -11556,7 +11560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>2200271</v>
       </c>
@@ -11576,7 +11580,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>2200272</v>
       </c>
@@ -12389,7 +12393,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166">
         <v>2200428</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171">
         <v>2200440</v>
       </c>
@@ -12603,7 +12607,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177">
         <v>2200447</v>
       </c>
@@ -13177,7 +13181,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>2200537</v>
       </c>
@@ -13237,7 +13241,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>2200543</v>
       </c>
@@ -13377,7 +13381,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" hidden="1">
       <c r="A216">
         <v>2200586</v>
       </c>
@@ -13457,7 +13461,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" hidden="1">
       <c r="A220">
         <v>2200599</v>
       </c>
@@ -13557,7 +13561,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" hidden="1">
       <c r="A225">
         <v>2200640</v>
       </c>
@@ -13694,7 +13698,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" hidden="1">
       <c r="A232">
         <v>2200669</v>
       </c>
@@ -13914,7 +13918,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" hidden="1">
       <c r="A243">
         <v>2200692</v>
       </c>
@@ -13931,7 +13935,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" hidden="1">
       <c r="A244">
         <v>2200693</v>
       </c>
@@ -13971,7 +13975,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" hidden="1">
       <c r="A246">
         <v>2200695</v>
       </c>
@@ -13991,7 +13995,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" hidden="1">
       <c r="A247">
         <v>2200698</v>
       </c>
@@ -14011,7 +14015,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" hidden="1">
       <c r="A248">
         <v>2200700</v>
       </c>
@@ -14128,7 +14132,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" hidden="1">
       <c r="A254">
         <v>2200708</v>
       </c>
@@ -14348,7 +14352,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>2200729</v>
       </c>
@@ -14368,7 +14372,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" hidden="1">
       <c r="A266">
         <v>2200730</v>
       </c>
@@ -14448,7 +14452,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" hidden="1">
       <c r="A270">
         <v>2200735</v>
       </c>
@@ -14508,7 +14512,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" hidden="1">
       <c r="A273">
         <v>2200738</v>
       </c>
@@ -14548,7 +14552,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" hidden="1">
       <c r="A275">
         <v>2200740</v>
       </c>
@@ -14608,7 +14612,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" hidden="1">
       <c r="A278">
         <v>2200746</v>
       </c>
@@ -14688,7 +14692,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" hidden="1">
       <c r="A282">
         <v>2200750</v>
       </c>
@@ -14768,7 +14772,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" hidden="1">
       <c r="A286">
         <v>2200758</v>
       </c>
@@ -15005,7 +15009,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" hidden="1">
       <c r="A298">
         <v>2200803</v>
       </c>
@@ -15025,7 +15029,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" hidden="1">
       <c r="A299">
         <v>2200804</v>
       </c>
@@ -15105,7 +15109,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" hidden="1">
       <c r="A303">
         <v>2200810</v>
       </c>
@@ -15125,7 +15129,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" hidden="1">
       <c r="A304">
         <v>2200811</v>
       </c>
@@ -15185,7 +15189,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" hidden="1">
       <c r="A307">
         <v>2200815</v>
       </c>
@@ -15205,7 +15209,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" hidden="1">
       <c r="A308">
         <v>2200816</v>
       </c>
@@ -15365,7 +15369,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" hidden="1">
       <c r="A316">
         <v>2200827</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" hidden="1">
       <c r="A318">
         <v>2200829</v>
       </c>
@@ -15525,7 +15529,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" hidden="1">
       <c r="A324">
         <v>2200837</v>
       </c>
@@ -16217,7 +16221,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" hidden="1">
       <c r="A361">
         <v>2200918</v>
       </c>
@@ -16254,7 +16258,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1">
+    <row r="363" spans="1:6">
       <c r="A363">
         <v>2200926</v>
       </c>
@@ -16274,7 +16278,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1">
+    <row r="364" spans="1:6">
       <c r="A364">
         <v>2200927</v>
       </c>
@@ -16314,7 +16318,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1">
+    <row r="366" spans="1:6">
       <c r="A366">
         <v>2200930</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1">
+    <row r="367" spans="1:6">
       <c r="A367">
         <v>2200931</v>
       </c>
@@ -16434,7 +16438,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1">
+    <row r="372" spans="1:6">
       <c r="A372">
         <v>2200937</v>
       </c>
@@ -16468,7 +16472,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1">
+    <row r="374" spans="1:6">
       <c r="A374">
         <v>2200941</v>
       </c>
@@ -16688,7 +16692,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1">
+    <row r="385" spans="1:6">
       <c r="A385">
         <v>2200977</v>
       </c>
@@ -16873,7 +16877,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1">
+    <row r="395" spans="1:6">
       <c r="A395">
         <v>2200998</v>
       </c>
@@ -16893,7 +16897,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1">
+    <row r="396" spans="1:6">
       <c r="A396">
         <v>2201000</v>
       </c>
@@ -16953,7 +16957,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="60">
+    <row r="399" spans="1:6" ht="60" hidden="1">
       <c r="A399">
         <v>2201006</v>
       </c>
@@ -16993,7 +16997,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1">
+    <row r="401" spans="1:6">
       <c r="A401">
         <v>2201008</v>
       </c>
@@ -17013,7 +17017,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1">
+    <row r="402" spans="1:6">
       <c r="A402">
         <v>2201009</v>
       </c>
@@ -17033,7 +17037,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1">
+    <row r="403" spans="1:6">
       <c r="A403">
         <v>2201010</v>
       </c>
@@ -17538,7 +17542,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" hidden="1">
       <c r="A429">
         <v>2201073</v>
       </c>
@@ -17572,7 +17576,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1">
+    <row r="431" spans="1:6">
       <c r="A431">
         <v>2201075</v>
       </c>
@@ -17592,7 +17596,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1">
+    <row r="432" spans="1:6">
       <c r="A432">
         <v>2201076</v>
       </c>
@@ -17632,7 +17636,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1">
+    <row r="434" spans="1:6">
       <c r="A434">
         <v>2201078</v>
       </c>
@@ -17729,7 +17733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1">
+    <row r="439" spans="1:6">
       <c r="A439">
         <v>2201089</v>
       </c>
@@ -17749,7 +17753,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1">
+    <row r="440" spans="1:6">
       <c r="A440">
         <v>2201091</v>
       </c>
@@ -17769,7 +17773,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1">
+    <row r="441" spans="1:6">
       <c r="A441">
         <v>2201093</v>
       </c>
@@ -17960,7 +17964,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1">
+    <row r="451" spans="1:6">
       <c r="A451">
         <v>2201107</v>
       </c>
@@ -18134,7 +18138,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1">
+    <row r="460" spans="1:6">
       <c r="A460">
         <v>2201123</v>
       </c>
@@ -18234,7 +18238,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" hidden="1">
       <c r="A465">
         <v>2201153</v>
       </c>
@@ -18274,7 +18278,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" hidden="1">
       <c r="A467">
         <v>2201155</v>
       </c>
@@ -18391,7 +18395,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1">
+    <row r="473" spans="1:6">
       <c r="A473">
         <v>2201161</v>
       </c>
@@ -18411,7 +18415,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1">
+    <row r="474" spans="1:6">
       <c r="A474">
         <v>2201162</v>
       </c>
@@ -18882,7 +18886,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1">
+    <row r="498" spans="1:6">
       <c r="A498">
         <v>2201199</v>
       </c>
@@ -18919,7 +18923,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1">
+    <row r="500" spans="1:6">
       <c r="A500">
         <v>2201213</v>
       </c>
@@ -19270,7 +19274,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1">
+    <row r="518" spans="1:6">
       <c r="A518">
         <v>2201273</v>
       </c>
@@ -19290,7 +19294,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1">
+    <row r="519" spans="1:6">
       <c r="A519">
         <v>2201274</v>
       </c>
@@ -19370,7 +19374,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="90" hidden="1">
+    <row r="523" spans="1:6" ht="90">
       <c r="A523">
         <v>2201285</v>
       </c>
@@ -19390,7 +19394,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1">
+    <row r="524" spans="1:6">
       <c r="A524">
         <v>2201286</v>
       </c>
@@ -19470,7 +19474,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" hidden="1">
       <c r="A528">
         <v>2201291</v>
       </c>
@@ -19769,7 +19773,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" hidden="1">
       <c r="A544">
         <v>2201316</v>
       </c>
@@ -19889,7 +19893,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" hidden="1">
       <c r="A550">
         <v>2201322</v>
       </c>
@@ -19909,7 +19913,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" hidden="1">
       <c r="A551">
         <v>2201323</v>
       </c>
@@ -19929,7 +19933,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" hidden="1">
       <c r="A552">
         <v>2201324</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1">
+    <row r="554" spans="1:6">
       <c r="A554">
         <v>2201326</v>
       </c>
@@ -20009,7 +20013,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1">
+    <row r="556" spans="1:6">
       <c r="A556">
         <v>2201328</v>
       </c>
@@ -20049,7 +20053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" hidden="1">
       <c r="A558">
         <v>2201330</v>
       </c>
@@ -20069,7 +20073,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" hidden="1">
       <c r="A559">
         <v>2201331</v>
       </c>
@@ -20089,7 +20093,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" hidden="1">
       <c r="A560">
         <v>2201334</v>
       </c>
@@ -20126,7 +20130,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" hidden="1">
       <c r="A562">
         <v>2201336</v>
       </c>
@@ -20266,7 +20270,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" hidden="1">
       <c r="A569">
         <v>2201357</v>
       </c>
@@ -20346,7 +20350,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1">
+    <row r="573" spans="1:6">
       <c r="A573">
         <v>2201362</v>
       </c>
@@ -20366,7 +20370,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1">
+    <row r="574" spans="1:6">
       <c r="A574">
         <v>2201363</v>
       </c>
@@ -20406,7 +20410,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1">
+    <row r="576" spans="1:6">
       <c r="A576">
         <v>2201365</v>
       </c>
@@ -20426,7 +20430,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" hidden="1">
       <c r="A577">
         <v>2201366</v>
       </c>
@@ -20446,7 +20450,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" hidden="1">
       <c r="A578">
         <v>2201367</v>
       </c>
@@ -20466,7 +20470,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="360" hidden="1">
+    <row r="579" spans="1:6" ht="360">
       <c r="A579">
         <v>2201370</v>
       </c>
@@ -20554,7 +20558,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1">
+    <row r="584" spans="1:6">
       <c r="A584">
         <v>2201377</v>
       </c>
@@ -20651,7 +20655,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" hidden="1">
       <c r="A589">
         <v>2201382</v>
       </c>
@@ -20671,7 +20675,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" hidden="1">
       <c r="A590">
         <v>2201383</v>
       </c>
@@ -20691,7 +20695,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" hidden="1">
       <c r="A591">
         <v>2201384</v>
       </c>
@@ -20751,7 +20755,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" hidden="1">
       <c r="A594">
         <v>2201387</v>
       </c>
@@ -20788,7 +20792,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" hidden="1">
       <c r="A596">
         <v>2201390</v>
       </c>
@@ -20865,7 +20869,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" hidden="1">
       <c r="A600">
         <v>2201409</v>
       </c>
@@ -20882,7 +20886,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" hidden="1">
       <c r="A601">
         <v>2201410</v>
       </c>
@@ -20902,7 +20906,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" hidden="1">
       <c r="A602">
         <v>2201411</v>
       </c>
@@ -20922,7 +20926,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" hidden="1">
       <c r="A603">
         <v>2201412</v>
       </c>
@@ -20939,7 +20943,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" hidden="1">
       <c r="A604">
         <v>2201413</v>
       </c>
@@ -20959,7 +20963,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" hidden="1">
       <c r="A605">
         <v>2201415</v>
       </c>
@@ -21019,7 +21023,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" hidden="1">
       <c r="A608">
         <v>2201418</v>
       </c>
@@ -21039,7 +21043,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" hidden="1">
       <c r="A609">
         <v>2201419</v>
       </c>
@@ -21056,7 +21060,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" hidden="1">
       <c r="A610">
         <v>2201420</v>
       </c>
@@ -21196,7 +21200,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" hidden="1">
       <c r="A617">
         <v>2201428</v>
       </c>
@@ -21236,7 +21240,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" hidden="1">
       <c r="A619">
         <v>2201430</v>
       </c>
@@ -21253,7 +21257,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" hidden="1">
       <c r="A620">
         <v>2201432</v>
       </c>
@@ -21270,7 +21274,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" hidden="1">
       <c r="A621">
         <v>2201433</v>
       </c>
@@ -21287,7 +21291,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" hidden="1">
       <c r="A622">
         <v>2201434</v>
       </c>
@@ -21307,7 +21311,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" hidden="1">
       <c r="A623">
         <v>2201435</v>
       </c>
@@ -21364,7 +21368,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" hidden="1">
       <c r="A626">
         <v>2201438</v>
       </c>
@@ -21381,7 +21385,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" hidden="1">
       <c r="A627">
         <v>2201439</v>
       </c>
@@ -21481,7 +21485,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" hidden="1">
       <c r="A632">
         <v>2201444</v>
       </c>
@@ -21501,7 +21505,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" hidden="1">
       <c r="A633">
         <v>2201445</v>
       </c>
@@ -21521,7 +21525,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" hidden="1">
       <c r="A634">
         <v>2201446</v>
       </c>
@@ -21555,7 +21559,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" hidden="1">
       <c r="A636">
         <v>2201448</v>
       </c>
@@ -21575,7 +21579,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" hidden="1">
       <c r="A637">
         <v>2201449</v>
       </c>
@@ -21592,7 +21596,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" hidden="1">
       <c r="A638">
         <v>2201450</v>
       </c>
@@ -21609,7 +21613,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" hidden="1">
       <c r="A639">
         <v>2201451</v>
       </c>
@@ -21629,7 +21633,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" hidden="1">
       <c r="A640">
         <v>2201452</v>
       </c>
@@ -21646,7 +21650,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" hidden="1">
       <c r="A641">
         <v>2201453</v>
       </c>
@@ -21666,7 +21670,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" hidden="1">
       <c r="A642">
         <v>2201454</v>
       </c>
@@ -21786,7 +21790,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" hidden="1">
       <c r="A648">
         <v>2201463</v>
       </c>
@@ -21806,7 +21810,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" hidden="1">
       <c r="A649">
         <v>2201464</v>
       </c>
@@ -21846,7 +21850,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" hidden="1">
       <c r="A651">
         <v>2201466</v>
       </c>
@@ -21983,7 +21987,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" hidden="1">
       <c r="A658">
         <v>2201473</v>
       </c>
@@ -22083,7 +22087,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" hidden="1">
       <c r="A663">
         <v>2201482</v>
       </c>
@@ -22143,7 +22147,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:6" hidden="1">
       <c r="A666">
         <v>2201485</v>
       </c>
@@ -22163,7 +22167,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" spans="1:6" hidden="1">
       <c r="A667">
         <v>2201486</v>
       </c>
@@ -22323,7 +22327,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" spans="1:6" hidden="1">
       <c r="A675">
         <v>2201499</v>
       </c>
@@ -22797,7 +22801,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1">
+    <row r="702" spans="1:6">
       <c r="A702">
         <v>2201575</v>
       </c>
@@ -22814,7 +22818,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1">
+    <row r="703" spans="1:6">
       <c r="A703">
         <v>2201576</v>
       </c>
@@ -22831,7 +22835,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1">
+    <row r="704" spans="1:6">
       <c r="A704">
         <v>2201577</v>
       </c>
@@ -23120,7 +23124,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1">
+    <row r="721" spans="1:6">
       <c r="A721">
         <v>2201596</v>
       </c>
@@ -24031,7 +24035,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1">
+    <row r="773" spans="1:6">
       <c r="A773">
         <v>2201668</v>
       </c>
@@ -27554,7 +27558,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="970" spans="1:6" hidden="1">
+    <row r="970" spans="1:6">
       <c r="A970">
         <v>2201965</v>
       </c>
@@ -30681,7 +30685,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="1128" spans="1:6" hidden="1">
+    <row r="1128" spans="1:6">
       <c r="A1128">
         <v>2202229</v>
       </c>
@@ -32771,7 +32775,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1234" spans="1:6" hidden="1">
+    <row r="1234" spans="1:6">
       <c r="A1234">
         <v>2202441</v>
       </c>
@@ -35433,7 +35437,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="1383" spans="1:6" hidden="1">
+    <row r="1383" spans="1:6">
       <c r="A1383">
         <v>2202676</v>
       </c>
@@ -36242,7 +36246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1426" spans="1:6" hidden="1">
+    <row r="1426" spans="1:6">
       <c r="A1426">
         <v>2202736</v>
       </c>
@@ -36871,7 +36875,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1460" spans="1:6" hidden="1">
+    <row r="1460" spans="1:6">
       <c r="A1460">
         <v>2202782</v>
       </c>
@@ -37497,7 +37501,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1494" spans="1:6" hidden="1">
+    <row r="1494" spans="1:6">
       <c r="A1494">
         <v>2202825</v>
       </c>
@@ -37622,7 +37626,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1501" spans="1:6" hidden="1">
+    <row r="1501" spans="1:6">
       <c r="A1501">
         <v>2202836</v>
       </c>
@@ -37967,7 +37971,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1519" spans="1:6" hidden="1">
+    <row r="1519" spans="1:6">
       <c r="A1519">
         <v>2202855</v>
       </c>
@@ -37984,7 +37988,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="1520" spans="1:6" hidden="1">
+    <row r="1520" spans="1:6">
       <c r="A1520">
         <v>2202856</v>
       </c>
@@ -38374,7 +38378,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="1541" spans="1:6" hidden="1">
+    <row r="1541" spans="1:6">
       <c r="A1541">
         <v>2202882</v>
       </c>
@@ -38502,7 +38506,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1548" spans="1:6" hidden="1">
+    <row r="1548" spans="1:6">
       <c r="A1548">
         <v>2202889</v>
       </c>
@@ -38704,7 +38708,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1559" spans="1:6" hidden="1">
+    <row r="1559" spans="1:6">
       <c r="A1559">
         <v>2202900</v>
       </c>
@@ -38738,7 +38742,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1561" spans="1:6" ht="60" hidden="1">
+    <row r="1561" spans="1:6" ht="60">
       <c r="A1561">
         <v>2202904</v>
       </c>
@@ -41578,7 +41582,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="1712" spans="1:6" hidden="1">
+    <row r="1712" spans="1:6">
       <c r="A1712">
         <v>2203091</v>
       </c>
@@ -42753,7 +42757,7 @@
   <autoFilter ref="A1:F1770" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="7评价"/>
+        <filter val="5澄清"/>
       </filters>
     </filterColumn>
   </autoFilter>
